--- a/PdPDM/PdPDM_ImportReferences.xlsx
+++ b/PdPDM/PdPDM_ImportReferences.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,15 +137,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>外键_当事人关系-当事人-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_个人-当事人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREEMENT_PARTY</t>
+  </si>
+  <si>
+    <t>AGREEMENT</t>
+  </si>
+  <si>
+    <t>AGREEMENT_TO_APPLICATION</t>
+  </si>
+  <si>
+    <t>APPLICATION</t>
+  </si>
+  <si>
+    <t>PARTY_APPLICATION</t>
+  </si>
+  <si>
+    <t>FK_PARTY_RELATED-PARTY-1</t>
+  </si>
+  <si>
+    <t>FK_PARTY_RELATED-PARTY-2</t>
+  </si>
+  <si>
+    <t>FK_INDIVIDUAL-PARTY</t>
+  </si>
+  <si>
+    <t>FK_INDIVIDUAL_NAME_HIST-INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_PARTY-PARTY</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_PARTY-AGREEMENT</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_TO_APPLICATION-AGREEMENT</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_TO_APPLICATION-APPLICATION</t>
+  </si>
+  <si>
+    <t>FK_PARTY_APPLICATION-PARTY</t>
+  </si>
+  <si>
+    <t>FK_PARTY_APPLICATION-APPLICATION</t>
+  </si>
+  <si>
+    <t>Account_Num</t>
+  </si>
+  <si>
+    <t>Account_Modifier_Num</t>
+  </si>
+  <si>
+    <t>Application_Id</t>
+  </si>
+  <si>
     <t>外键_当事人关系-当事人-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键_当事人关系-当事人-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键_个人-当事人</t>
+    <t>01.当事人域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,105 +223,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Col2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Col3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Col4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGREEMENT_PARTY</t>
-  </si>
-  <si>
-    <t>AGREEMENT</t>
-  </si>
-  <si>
-    <t>AGREEMENT_TO_APPLICATION</t>
-  </si>
-  <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>PARTY_APPLICATION</t>
-  </si>
-  <si>
-    <t>FK_PARTY_RELATED-PARTY-1</t>
-  </si>
-  <si>
-    <t>FK_PARTY_RELATED-PARTY-2</t>
-  </si>
-  <si>
-    <t>FK_INDIVIDUAL-PARTY</t>
-  </si>
-  <si>
-    <t>FK_INDIVIDUAL_NAME_HIST-INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_PARTY-PARTY</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_PARTY-AGREEMENT</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_TO_APPLICATION-AGREEMENT</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_TO_APPLICATION-APPLICATION</t>
-  </si>
-  <si>
-    <t>FK_PARTY_APPLICATION-PARTY</t>
-  </si>
-  <si>
-    <t>FK_PARTY_APPLICATION-APPLICATION</t>
-  </si>
-  <si>
-    <t>Account_Num</t>
-  </si>
-  <si>
-    <t>Account_Modifier_Num</t>
-  </si>
-  <si>
-    <t>Application_Id</t>
+    <t>04.协议域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议当事人-当事人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议当事人-协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议对应申请-协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议对应申请-申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>01.当事人域</t>
-  </si>
-  <si>
-    <t>01.当事人域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01.当事人域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.协议域</t>
-  </si>
-  <si>
-    <t>外键_协议当事人-当事人</t>
-  </si>
-  <si>
-    <t>外键_协议当事人-协议</t>
-  </si>
-  <si>
-    <t>外键_协议对应申请-协议</t>
-  </si>
-  <si>
-    <t>外键_协议对应申请-申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外键_当事人申请-当事人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外键_当事人申请-申请</t>
-  </si>
-  <si>
-    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,23 +411,6 @@
         <name val="华文细黑"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -689,6 +676,23 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -757,28 +761,28 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="14">
-    <tableColumn id="1" name="CRUD" dataDxfId="0"/>
-    <tableColumn id="11" name="Parent" dataDxfId="20"/>
-    <tableColumn id="2" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" name="Code" dataDxfId="18">
+    <tableColumn id="1" name="CRUD" dataDxfId="20"/>
+    <tableColumn id="11" name="Parent" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" name="Code" dataDxfId="17">
       <calculatedColumnFormula>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Comment" dataDxfId="17"/>
-    <tableColumn id="5" name="ParentTable" dataDxfId="16"/>
-    <tableColumn id="6" name="ChildTable" dataDxfId="15"/>
-    <tableColumn id="7" name="Cardinality" dataDxfId="14"/>
-    <tableColumn id="14" name="ParentRole" dataDxfId="13"/>
-    <tableColumn id="13" name="ChildRole" dataDxfId="12"/>
-    <tableColumn id="10" name="Col1" dataDxfId="11">
+    <tableColumn id="4" name="Comment" dataDxfId="16"/>
+    <tableColumn id="5" name="ParentTable" dataDxfId="15"/>
+    <tableColumn id="6" name="ChildTable" dataDxfId="14"/>
+    <tableColumn id="7" name="Cardinality" dataDxfId="13"/>
+    <tableColumn id="14" name="ParentRole" dataDxfId="12"/>
+    <tableColumn id="13" name="ChildRole" dataDxfId="11"/>
+    <tableColumn id="10" name="Col1" dataDxfId="10">
       <calculatedColumnFormula>MATCH(表1[[#This Row],[Code]],Joins!C:C,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Col2" dataDxfId="10">
+    <tableColumn id="8" name="Col2" dataDxfId="9">
       <calculatedColumnFormula>COUNTIF(表1[[#All],[Col4]],表1[[#This Row],[Col4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Col3" dataDxfId="9">
+    <tableColumn id="9" name="Col3" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF($N$2:N2,表1[[#This Row],[Col4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Col4" dataDxfId="8">
+    <tableColumn id="12" name="Col4" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE(表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -787,13 +791,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="Order" dataDxfId="5"/>
-    <tableColumn id="11" name="Relationship_x000a_Name" dataDxfId="4"/>
-    <tableColumn id="2" name="Reference_x000a_Code" dataDxfId="3"/>
-    <tableColumn id="3" name="ParentTableColumn" dataDxfId="2"/>
-    <tableColumn id="4" name="ChildTableColumn" dataDxfId="1"/>
+    <tableColumn id="1" name="Order" dataDxfId="4"/>
+    <tableColumn id="11" name="Relationship_x000a_Name" dataDxfId="3"/>
+    <tableColumn id="2" name="Reference_x000a_Code" dataDxfId="2"/>
+    <tableColumn id="3" name="ParentTableColumn" dataDxfId="1"/>
+    <tableColumn id="4" name="ChildTableColumn" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1089,7 +1093,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1145,26 +1149,26 @@
         <v>7</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1201,13 +1205,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1244,13 +1248,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1287,13 +1291,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1330,13 +1334,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1346,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
@@ -1371,23 +1375,23 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_AGREEMENT_PARTY-AGREEMENT</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
@@ -1412,23 +1416,23 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_AGREEMENT_TO_APPLICATION-AGREEMENT</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -1453,23 +1457,23 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_AGREEMENT_TO_APPLICATION-APPLICATION</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
@@ -1494,13 +1498,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1510,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
@@ -1535,23 +1539,23 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_PARTY_APPLICATION-APPLICATION</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
@@ -1621,7 +1625,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -1634,7 +1638,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1645,7 +1649,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -1656,7 +1660,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
@@ -1667,7 +1671,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1678,62 +1682,62 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -1744,13 +1748,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/PdPDM/PdPDM_ImportReferences.xlsx
+++ b/PdPDM/PdPDM_ImportReferences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,9 +71,6 @@
     <t>ChildTableColumn</t>
   </si>
   <si>
-    <t>Cardinality</t>
-  </si>
-  <si>
     <t>1..n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,77 +138,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Col2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREEMENT_PARTY</t>
+  </si>
+  <si>
+    <t>AGREEMENT</t>
+  </si>
+  <si>
+    <t>AGREEMENT_TO_APPLICATION</t>
+  </si>
+  <si>
+    <t>APPLICATION</t>
+  </si>
+  <si>
+    <t>PARTY_APPLICATION</t>
+  </si>
+  <si>
+    <t>FK_PARTY_RELATED-PARTY-1</t>
+  </si>
+  <si>
+    <t>FK_PARTY_RELATED-PARTY-2</t>
+  </si>
+  <si>
+    <t>FK_INDIVIDUAL-PARTY</t>
+  </si>
+  <si>
+    <t>FK_INDIVIDUAL_NAME_HIST-INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_PARTY-PARTY</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_PARTY-AGREEMENT</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_TO_APPLICATION-AGREEMENT</t>
+  </si>
+  <si>
+    <t>FK_AGREEMENT_TO_APPLICATION-APPLICATION</t>
+  </si>
+  <si>
+    <t>FK_PARTY_APPLICATION-PARTY</t>
+  </si>
+  <si>
+    <t>FK_PARTY_APPLICATION-APPLICATION</t>
+  </si>
+  <si>
+    <t>Account_Num</t>
+  </si>
+  <si>
+    <t>Account_Modifier_Num</t>
+  </si>
+  <si>
+    <t>Application_Id</t>
+  </si>
+  <si>
+    <t>04.协议域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议当事人-当事人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.当事人域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_当事人关系-当事人-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.当事人域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>外键_个人-当事人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Col2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Col3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Col4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGREEMENT_PARTY</t>
-  </si>
-  <si>
-    <t>AGREEMENT</t>
-  </si>
-  <si>
-    <t>AGREEMENT_TO_APPLICATION</t>
-  </si>
-  <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>PARTY_APPLICATION</t>
-  </si>
-  <si>
-    <t>FK_PARTY_RELATED-PARTY-1</t>
-  </si>
-  <si>
-    <t>FK_PARTY_RELATED-PARTY-2</t>
-  </si>
-  <si>
-    <t>FK_INDIVIDUAL-PARTY</t>
-  </si>
-  <si>
-    <t>FK_INDIVIDUAL_NAME_HIST-INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_PARTY-PARTY</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_PARTY-AGREEMENT</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_TO_APPLICATION-AGREEMENT</t>
-  </si>
-  <si>
-    <t>FK_AGREEMENT_TO_APPLICATION-APPLICATION</t>
-  </si>
-  <si>
-    <t>FK_PARTY_APPLICATION-PARTY</t>
-  </si>
-  <si>
-    <t>FK_PARTY_APPLICATION-APPLICATION</t>
-  </si>
-  <si>
-    <t>Account_Num</t>
-  </si>
-  <si>
-    <t>Account_Modifier_Num</t>
-  </si>
-  <si>
-    <t>Application_Id</t>
-  </si>
-  <si>
-    <t>外键_当事人关系-当事人-1</t>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_个人名称历史-个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议当事人-协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.协议域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议对应申请-协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.协议域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键_协议对应申请-申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,34 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键_个人名称历史-个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.协议域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键_协议当事人-当事人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键_协议当事人-协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键_协议对应申请-协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键_协议对应申请-申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01.当事人域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外键_当事人申请-当事人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,7 +280,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U</t>
+    <t>Cardinality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,29 +1117,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.21875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1137,38 +1162,38 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1178,10 +1203,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2" s="8">
@@ -1203,15 +1228,15 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1221,10 +1246,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1"/>
       <c r="K3" s="8">
@@ -1246,15 +1271,15 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1264,10 +1289,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="8">
@@ -1289,28 +1314,28 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_INDIVIDUAL_NAME_HIST-INDIVIDUAL</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="8">
@@ -1332,15 +1357,15 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1350,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="8">
@@ -1373,28 +1398,28 @@
         <v>AGREEMENT_PARTY-PARTY</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_AGREEMENT_PARTY-AGREEMENT</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1"/>
       <c r="K7" s="8">
@@ -1414,28 +1439,28 @@
         <v>AGREEMENT_PARTY-AGREEMENT</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_AGREEMENT_TO_APPLICATION-AGREEMENT</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1"/>
       <c r="K8" s="8">
@@ -1455,28 +1480,28 @@
         <v>AGREEMENT_TO_APPLICATION-AGREEMENT</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_AGREEMENT_TO_APPLICATION-APPLICATION</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1"/>
       <c r="K9" s="8">
@@ -1496,15 +1521,15 @@
         <v>AGREEMENT_TO_APPLICATION-APPLICATION</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
@@ -1514,10 +1539,10 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1"/>
       <c r="K10" s="8">
@@ -1537,28 +1562,28 @@
         <v>PARTY_APPLICATION-PARTY</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>CONCATENATE("FK_",表1[[#This Row],[ChildTable]],"-",表1[[#This Row],[ParentTable]],IF(表1[[#This Row],[Col2]]=1,"",CONCATENATE("-",表1[[#This Row],[Col3]])))</f>
         <v>FK_PARTY_APPLICATION-APPLICATION</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1"/>
       <c r="K11" s="8">
@@ -1596,17 +1621,17 @@
       <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>11</v>
@@ -1623,138 +1648,138 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
